--- a/result/gr75_01_simulated/details.xlsx
+++ b/result/gr75_01_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7291197776794434</v>
+        <v>0.5269255638122559</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>614.7117236097602</v>
+        <v>603.0102269504332</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02166240836380422</v>
+        <v>0.02113855288568531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01819277251754154</v>
+        <v>0.01816047106509355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01674436563703052</v>
+        <v>0.01668346413106496</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01548787131659102</v>
+        <v>0.01576607470620122</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01516774462936261</v>
+        <v>0.01472376662218459</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01400618226569427</v>
+        <v>0.01384707527371461</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01361300002307419</v>
+        <v>0.01338806196857388</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01319245886660771</v>
+        <v>0.01289018853806115</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01319245886660771</v>
+        <v>0.01289018853806115</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01308535440708624</v>
+        <v>0.0127608088633898</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0129209873709731</v>
+        <v>0.0127608088633898</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01269171018570357</v>
+        <v>0.01253698328309324</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01247801474107441</v>
+        <v>0.01238062877748528</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01247801474107441</v>
+        <v>0.01226850010260345</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01227847835865227</v>
+        <v>0.01208062205815521</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0122078587175362</v>
+        <v>0.01195082063860927</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01207258992940968</v>
+        <v>0.01193258432794835</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01204176379585239</v>
+        <v>0.01183970457068713</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01201044534479867</v>
+        <v>0.01179986567307338</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01198268467075556</v>
+        <v>0.01175458532067121</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7240712642669678</v>
+        <v>0.5312392711639404</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>602.4289556035073</v>
+        <v>588.061798362929</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02129179632795117</v>
+        <v>0.02090514152086939</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01792931276955641</v>
+        <v>0.01800525247790521</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01643669855661552</v>
+        <v>0.01547576836219271</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01559901135537262</v>
+        <v>0.0148512500673906</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01400526464887076</v>
+        <v>0.01385570876662849</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01364586321773001</v>
+        <v>0.01340208452406244</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01349515821125491</v>
+        <v>0.01306155858872731</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01287868343187626</v>
+        <v>0.01264463966712405</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01275525172389274</v>
+        <v>0.01225395508262999</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01249425104171068</v>
+        <v>0.01219996966205949</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01249425104171068</v>
+        <v>0.01197793934936026</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01237026524847165</v>
+        <v>0.01173498110618846</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0122619991123392</v>
+        <v>0.01173498110618846</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01221248385777718</v>
+        <v>0.01168121062535062</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01205978138157016</v>
+        <v>0.01161870411830767</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01203662066628225</v>
+        <v>0.01157360523436896</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01188461302386539</v>
+        <v>0.01154468307238202</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01182546134654795</v>
+        <v>0.01151171009523183</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01177954906778916</v>
+        <v>0.01148016090733078</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01174325449519507</v>
+        <v>0.01146319295054442</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6227233409881592</v>
+        <v>0.6441624164581299</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>595.539629983632</v>
+        <v>598.2268122965252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0213037886977032</v>
+        <v>0.02145118859480475</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01811242311827193</v>
+        <v>0.01853430679924043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01669004685111884</v>
+        <v>0.01660950980965648</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01518272514319468</v>
+        <v>0.01565832752383478</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0143291223627713</v>
+        <v>0.01445408703445077</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01346463305182446</v>
+        <v>0.01373455404343684</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01340102020363879</v>
+        <v>0.0131310700741944</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01302792194663857</v>
+        <v>0.0131310700741944</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01286689581132777</v>
+        <v>0.01301432760454357</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01259146843126248</v>
+        <v>0.01280479219649386</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01236080796028836</v>
+        <v>0.01253796721413884</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01222218189308031</v>
+        <v>0.01231572641287818</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01197116496053469</v>
+        <v>0.01219278675906894</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0118731330408732</v>
+        <v>0.01194377400292806</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01177800972547768</v>
+        <v>0.01189531210093814</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01177800972547768</v>
+        <v>0.01179396738180705</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01171155573234653</v>
+        <v>0.01176528877973847</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01165481631263703</v>
+        <v>0.01171967478834992</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01164725444761285</v>
+        <v>0.01168293416572071</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01160895964880374</v>
+        <v>0.01166134137030263</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6732308864593506</v>
+        <v>0.5942234992980957</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>594.067212460981</v>
+        <v>602.3546427493802</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02083856225509997</v>
+        <v>0.02123306595234294</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0177014349514001</v>
+        <v>0.01824632604175058</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01568422357316416</v>
+        <v>0.01627013399764592</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01525141508582081</v>
+        <v>0.0157782434344335</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01471156775082578</v>
+        <v>0.01506721532839755</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01348717594044597</v>
+        <v>0.01441304778509578</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01337030025780586</v>
+        <v>0.01359608201450409</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01296758601521189</v>
+        <v>0.01297699744629068</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01272980090705693</v>
+        <v>0.0129018261793614</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01232930682683356</v>
+        <v>0.01280821421680652</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01218305731096704</v>
+        <v>0.01266951072788022</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01205186766645903</v>
+        <v>0.01226315548250724</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01195682917633407</v>
+        <v>0.01224575403033537</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01183474508950007</v>
+        <v>0.01207131687933331</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01183474508950007</v>
+        <v>0.01200971557112397</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01176362024022157</v>
+        <v>0.01195719961133055</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01169082749738022</v>
+        <v>0.01189423606163728</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01164461472317356</v>
+        <v>0.01177787364022701</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01159836875290747</v>
+        <v>0.01177434862503124</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01158025755284563</v>
+        <v>0.01174180590154737</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7309858798980713</v>
+        <v>0.5468759536743164</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>596.4141723377543</v>
+        <v>597.1654948600299</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0211938454936364</v>
+        <v>0.02109460741991599</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01844357013178559</v>
+        <v>0.01747579612791106</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01566680804940504</v>
+        <v>0.01620861065550056</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01542958027481985</v>
+        <v>0.01561902092230849</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01488813161555519</v>
+        <v>0.01437192966169548</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01375937678793532</v>
+        <v>0.01407170266500568</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01318403684876847</v>
+        <v>0.01354735257671879</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01318403684876847</v>
+        <v>0.01335378399284603</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01254964960204446</v>
+        <v>0.01275197146844777</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01225262774424516</v>
+        <v>0.01263295534184654</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01223904607810159</v>
+        <v>0.01243948001027791</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01207323426824115</v>
+        <v>0.01231304638661348</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01198081708309984</v>
+        <v>0.01215421027852838</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0117906589528306</v>
+        <v>0.01205465435362124</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0117906589528306</v>
+        <v>0.01198686151109865</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01171546056529147</v>
+        <v>0.01193088975993096</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0116949247355369</v>
+        <v>0.01182946698487079</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01169244973747003</v>
+        <v>0.01170297871550362</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01166209332100015</v>
+        <v>0.01167481383402817</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01162600725804589</v>
+        <v>0.01164065292124814</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7199976444244385</v>
+        <v>0.5746200084686279</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>588.4548040075661</v>
+        <v>608.2545791985103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02129914924566306</v>
+        <v>0.02133924811251438</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01785091383277346</v>
+        <v>0.01845199019616885</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01705328662465156</v>
+        <v>0.01594833130070882</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01487775247137529</v>
+        <v>0.01501344565282738</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01454393318056119</v>
+        <v>0.01444206089325096</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01402877591008759</v>
+        <v>0.01404820424223</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01334108588708303</v>
+        <v>0.01361442005576446</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0132626498055108</v>
+        <v>0.01313415184064424</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0128820134936988</v>
+        <v>0.01275323565336737</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01243279683629243</v>
+        <v>0.01266388032346212</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01220377683931624</v>
+        <v>0.01261142366286919</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01189430547378395</v>
+        <v>0.0124414011602778</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01188283006739165</v>
+        <v>0.01236973190614907</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01179093466911879</v>
+        <v>0.01224107387420039</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01168683345658451</v>
+        <v>0.01209611598739189</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01162816888052273</v>
+        <v>0.01204784424768465</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01159388811147015</v>
+        <v>0.01201214979314516</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01153794233990029</v>
+        <v>0.01192248016603698</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01148219387171602</v>
+        <v>0.01192248016603698</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01147085387928978</v>
+        <v>0.01185681440932768</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6064233779907227</v>
+        <v>0.5312502384185791</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>594.9628786695812</v>
+        <v>602.9935630297841</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02126533213185323</v>
+        <v>0.02120117246638004</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01777971205828877</v>
+        <v>0.01808265187818603</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01547667943084474</v>
+        <v>0.01636532109824761</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01493462145346321</v>
+        <v>0.01539899677418049</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01458292016143005</v>
+        <v>0.01482301170303223</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01411732671490226</v>
+        <v>0.01426466477160838</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01366278661971829</v>
+        <v>0.01334343795620644</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01302796601126815</v>
+        <v>0.01287781567810648</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01286680550924032</v>
+        <v>0.01287781567810648</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01246520778465627</v>
+        <v>0.01263650010025517</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01242597723287774</v>
+        <v>0.01243008358516693</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01225662609671311</v>
+        <v>0.0123997940297162</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01209829675016243</v>
+        <v>0.01232530465439132</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01191396968868244</v>
+        <v>0.01205838002392063</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01190232695637734</v>
+        <v>0.01203863691268674</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01178184799004561</v>
+        <v>0.01195078747779424</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01171282520586112</v>
+        <v>0.01188539998353398</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01164273307542292</v>
+        <v>0.01183143080469344</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01164273307542292</v>
+        <v>0.0117905826385242</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01159771693313024</v>
+        <v>0.01175426048791002</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.561934232711792</v>
+        <v>0.5312364101409912</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>601.0074123463346</v>
+        <v>603.7738560027719</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02085686116261115</v>
+        <v>0.02123788799319374</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01818373662548999</v>
+        <v>0.01779393992738511</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01633235795962018</v>
+        <v>0.01655167779717226</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01525218901900045</v>
+        <v>0.01561977342560152</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01465864823825417</v>
+        <v>0.01449936617384391</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01350767721404926</v>
+        <v>0.01403846960159194</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0134865571307924</v>
+        <v>0.01341656826271438</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01307379969042728</v>
+        <v>0.01332291727329071</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0129396227233103</v>
+        <v>0.01310259677129597</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01279633361077698</v>
+        <v>0.01283556905408317</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01250627964966436</v>
+        <v>0.01263838196570119</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01248473958441923</v>
+        <v>0.01236933473522074</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01224721867030451</v>
+        <v>0.01233076175442323</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01216095437609916</v>
+        <v>0.0121166156369335</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01207841171792384</v>
+        <v>0.01204945266813324</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01197445386860341</v>
+        <v>0.01191665264565152</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01184867886938106</v>
+        <v>0.01189591256246675</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01178362578857119</v>
+        <v>0.01184213544632043</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01172788992047951</v>
+        <v>0.01180033298420681</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01171554410031841</v>
+        <v>0.01176947087724701</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5930771827697754</v>
+        <v>0.5468900203704834</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>608.732936907194</v>
+        <v>625.3663212767151</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02120512720954007</v>
+        <v>0.02134107648440884</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01825994565310284</v>
+        <v>0.01837935973675144</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01612962802689517</v>
+        <v>0.01625816187309214</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01550183626043507</v>
+        <v>0.01561396340321121</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01498103983127368</v>
+        <v>0.01444468405749754</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01416162284555659</v>
+        <v>0.01431280879799099</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01384096263025803</v>
+        <v>0.01391984862407272</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01334979278345247</v>
+        <v>0.01364358958402466</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01334979278345247</v>
+        <v>0.01364358958402466</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01325781102133441</v>
+        <v>0.01336269938969645</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01282585651527003</v>
+        <v>0.01296934559670344</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01262513390915149</v>
+        <v>0.01289180516903879</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01232922075224151</v>
+        <v>0.0127089101247955</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01222917663465599</v>
+        <v>0.01260525551127072</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01217599460088459</v>
+        <v>0.01249983126409438</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01212807018287596</v>
+        <v>0.01247193758261591</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01201088931630184</v>
+        <v>0.012361520118612</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01195945903534966</v>
+        <v>0.01226730431013635</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01190815515925815</v>
+        <v>0.01222260344062877</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01186613912099793</v>
+        <v>0.01219037663307436</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5750002861022949</v>
+        <v>0.5312352180480957</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>608.2740967813879</v>
+        <v>599.4369188301825</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02108941350404873</v>
+        <v>0.02130631467251787</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01788930756826362</v>
+        <v>0.01798507629329489</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01661246733634818</v>
+        <v>0.01614852946204287</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01500146754378765</v>
+        <v>0.01541448010276658</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01475081027245915</v>
+        <v>0.01429049516936974</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01410251701778087</v>
+        <v>0.01391044455987069</v>
       </c>
       <c r="L11" t="n">
-        <v>0.013915244276922</v>
+        <v>0.01331305916599156</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01336023005011001</v>
+        <v>0.01312464654957834</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01317371818728846</v>
+        <v>0.01259924854687428</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01298619309502824</v>
+        <v>0.01259802147006913</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01258157024649942</v>
+        <v>0.01236496640629553</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01255375162373375</v>
+        <v>0.01226947145725192</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01229445001479132</v>
+        <v>0.01220872863042655</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01222834045629752</v>
+        <v>0.01200739242156962</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01211806236656043</v>
+        <v>0.01189417077853528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01210244927599521</v>
+        <v>0.01184675837383901</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01206310786864632</v>
+        <v>0.01178507711936227</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01193651488485989</v>
+        <v>0.01172538285504021</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01187983453174643</v>
+        <v>0.01171723878156945</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0118571948690329</v>
+        <v>0.01168493019162149</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_01_simulated/details.xlsx
+++ b/result/gr75_01_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5269255638122559</v>
+        <v>1.285995721817017</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>603.0102269504332</v>
+        <v>633.1376521785569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02113855288568531</v>
+        <v>0.02506652643680683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01816047106509355</v>
+        <v>0.02096507363564691</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01668346413106496</v>
+        <v>0.01894712953950388</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01576607470620122</v>
+        <v>0.017012726749029</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01472376662218459</v>
+        <v>0.01590296042296959</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01384707527371461</v>
+        <v>0.0152148177820438</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01338806196857388</v>
+        <v>0.01449462711008997</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01289018853806115</v>
+        <v>0.01399981593082248</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01289018853806115</v>
+        <v>0.01373185237750325</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0127608088633898</v>
+        <v>0.0134696193681278</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0127608088633898</v>
+        <v>0.01324352616088779</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01253698328309324</v>
+        <v>0.01305243450386742</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01238062877748528</v>
+        <v>0.01280594221880037</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01226850010260345</v>
+        <v>0.01260862475379426</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01208062205815521</v>
+        <v>0.01251435662594541</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01195082063860927</v>
+        <v>0.01249285894215446</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01193258432794835</v>
+        <v>0.01242224824361597</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01183970457068713</v>
+        <v>0.01239743650215534</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01179986567307338</v>
+        <v>0.01236360435322458</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01175458532067121</v>
+        <v>0.01234186456488415</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5312392711639404</v>
+        <v>1.130040884017944</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>588.061798362929</v>
+        <v>640.5298924388535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02090514152086939</v>
+        <v>0.02572481502910171</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01800525247790521</v>
+        <v>0.02144421563181815</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01547576836219271</v>
+        <v>0.01883694509192812</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0148512500673906</v>
+        <v>0.01716556135325145</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01385570876662849</v>
+        <v>0.0161890877338635</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01340208452406244</v>
+        <v>0.01575714153878772</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01306155858872731</v>
+        <v>0.01457763671767395</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01264463966712405</v>
+        <v>0.01431542364540341</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01225395508262999</v>
+        <v>0.01362398399578339</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01219996966205949</v>
+        <v>0.01343654537485237</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01197793934936026</v>
+        <v>0.01319954878476851</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01173498110618846</v>
+        <v>0.01293279671630961</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01173498110618846</v>
+        <v>0.01283629422804617</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01168121062535062</v>
+        <v>0.01278314399732428</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01161870411830767</v>
+        <v>0.01265838314201972</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01157360523436896</v>
+        <v>0.01262527961413184</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01154468307238202</v>
+        <v>0.01261153688993961</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01151171009523183</v>
+        <v>0.01251064126113925</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01148016090733078</v>
+        <v>0.01251064126113925</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01146319295054442</v>
+        <v>0.01248596281557219</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6441624164581299</v>
+        <v>1.170999526977539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>598.2268122965252</v>
+        <v>642.9889433988556</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02145118859480475</v>
+        <v>0.02533029965480071</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01853430679924043</v>
+        <v>0.021694161286074</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01660950980965648</v>
+        <v>0.01877384726451413</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01565832752383478</v>
+        <v>0.01739055671421734</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01445408703445077</v>
+        <v>0.01632338593675783</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01373455404343684</v>
+        <v>0.01540976419500897</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0131310700741944</v>
+        <v>0.01443983313907569</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0131310700741944</v>
+        <v>0.01416885987334103</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01301432760454357</v>
+        <v>0.01400713672301314</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01280479219649386</v>
+        <v>0.01357829700370496</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01253796721413884</v>
+        <v>0.0132926332438165</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01231572641287818</v>
+        <v>0.01319062221638451</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01219278675906894</v>
+        <v>0.01305811233564748</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01194377400292806</v>
+        <v>0.01290029029367325</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01189531210093814</v>
+        <v>0.0127757986721388</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01179396738180705</v>
+        <v>0.01272431987073791</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01176528877973847</v>
+        <v>0.01264178296633796</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01171967478834992</v>
+        <v>0.01257467422265225</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01168293416572071</v>
+        <v>0.01255676720952726</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01166134137030263</v>
+        <v>0.01253389753214143</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5942234992980957</v>
+        <v>1.107003450393677</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>602.3546427493802</v>
+        <v>645.0813347290641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02123306595234294</v>
+        <v>0.02496373904142126</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01824632604175058</v>
+        <v>0.02020922609654791</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01627013399764592</v>
+        <v>0.01787491603163278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0157782434344335</v>
+        <v>0.016604100222137</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01506721532839755</v>
+        <v>0.01598656969382061</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01441304778509578</v>
+        <v>0.01562740760328337</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01359608201450409</v>
+        <v>0.01503259423480453</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01297699744629068</v>
+        <v>0.01442933401418631</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0129018261793614</v>
+        <v>0.01389850777739996</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01280821421680652</v>
+        <v>0.01372355506486598</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01266951072788022</v>
+        <v>0.01337122787023335</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01226315548250724</v>
+        <v>0.01312490525672691</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01224575403033537</v>
+        <v>0.01303341716639262</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01207131687933331</v>
+        <v>0.01287796576222694</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01200971557112397</v>
+        <v>0.0127879904499463</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01195719961133055</v>
+        <v>0.01277476894600127</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01189423606163728</v>
+        <v>0.01268014742876622</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01177787364022701</v>
+        <v>0.01259609595031315</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01177434862503124</v>
+        <v>0.01258695232640611</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01174180590154737</v>
+        <v>0.01257468488750612</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5468759536743164</v>
+        <v>1.071038007736206</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>597.1654948600299</v>
+        <v>647.3317875380944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02109460741991599</v>
+        <v>0.02496434351269935</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01747579612791106</v>
+        <v>0.02053236950047181</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01620861065550056</v>
+        <v>0.01846810989292908</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01561902092230849</v>
+        <v>0.01719210388035509</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01437192966169548</v>
+        <v>0.01634570265765975</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01407170266500568</v>
+        <v>0.01546236659711027</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01354735257671879</v>
+        <v>0.01473050443034872</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01335378399284603</v>
+        <v>0.01427442028942872</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01275197146844777</v>
+        <v>0.0138447443076013</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01263295534184654</v>
+        <v>0.0137206245310269</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01243948001027791</v>
+        <v>0.01343760974796686</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01231304638661348</v>
+        <v>0.01326762796419172</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01215421027852838</v>
+        <v>0.01312163039056797</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01205465435362124</v>
+        <v>0.0130312329651655</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01198686151109865</v>
+        <v>0.01290301585283488</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01193088975993096</v>
+        <v>0.01280316023512724</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01182946698487079</v>
+        <v>0.01272449425828077</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01170297871550362</v>
+        <v>0.01267624941514561</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01167481383402817</v>
+        <v>0.01265396120201057</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01164065292124814</v>
+        <v>0.01261855336331568</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5746200084686279</v>
+        <v>1.222987651824951</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>608.2545791985103</v>
+        <v>638.9283868123821</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02133924811251438</v>
+        <v>0.02577081560976348</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01845199019616885</v>
+        <v>0.0216657799316442</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01594833130070882</v>
+        <v>0.01960871139900268</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01501344565282738</v>
+        <v>0.01765868149068938</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01444206089325096</v>
+        <v>0.01646315123075331</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01404820424223</v>
+        <v>0.01569204858315635</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01361442005576446</v>
+        <v>0.01497791783155951</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01313415184064424</v>
+        <v>0.01448573578478835</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01275323565336737</v>
+        <v>0.01418964511833517</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01266388032346212</v>
+        <v>0.01399874397796758</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01261142366286919</v>
+        <v>0.01365162263070663</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0124414011602778</v>
+        <v>0.01323305926687337</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01236973190614907</v>
+        <v>0.01303937315846117</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01224107387420039</v>
+        <v>0.01291799222295307</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01209611598739189</v>
+        <v>0.01272534919841801</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01204784424768465</v>
+        <v>0.01261868148759881</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01201214979314516</v>
+        <v>0.01258948923084972</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01192248016603698</v>
+        <v>0.01255882836664269</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01192248016603698</v>
+        <v>0.01249207355116681</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01185681440932768</v>
+        <v>0.01245474438230764</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5312502384185791</v>
+        <v>1.070997476577759</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>602.9935630297841</v>
+        <v>645.9737863574956</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02120117246638004</v>
+        <v>0.02509664537932519</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01808265187818603</v>
+        <v>0.02064058871609874</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01636532109824761</v>
+        <v>0.01879339777830611</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01539899677418049</v>
+        <v>0.01634441988545732</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01482301170303223</v>
+        <v>0.01593517398939657</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01426466477160838</v>
+        <v>0.01511178522747861</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01334343795620644</v>
+        <v>0.01479958644389083</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01287781567810648</v>
+        <v>0.01434843839819418</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01287781567810648</v>
+        <v>0.01402907806418205</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01263650010025517</v>
+        <v>0.01371995521328842</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01243008358516693</v>
+        <v>0.01337732136142214</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0123997940297162</v>
+        <v>0.01319026234793041</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01232530465439132</v>
+        <v>0.01308221559371382</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01205838002392063</v>
+        <v>0.01297225084760422</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01203863691268674</v>
+        <v>0.01288597888426684</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01195078747779424</v>
+        <v>0.01277112364609386</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01188539998353398</v>
+        <v>0.01267279132754145</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01183143080469344</v>
+        <v>0.0126461915766716</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0117905826385242</v>
+        <v>0.01260783033456349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01175426048791002</v>
+        <v>0.01259208160540927</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5312364101409912</v>
+        <v>1.085999250411987</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>603.7738560027719</v>
+        <v>630.5421368071147</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02123788799319374</v>
+        <v>0.02536469901018662</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01779393992738511</v>
+        <v>0.02107642890649879</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01655167779717226</v>
+        <v>0.01888716515414414</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01561977342560152</v>
+        <v>0.01756657767343197</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01449936617384391</v>
+        <v>0.01646779357308875</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01403846960159194</v>
+        <v>0.01520907990740481</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01341656826271438</v>
+        <v>0.014747154611078</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01332291727329071</v>
+        <v>0.01403351134574128</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01310259677129597</v>
+        <v>0.01377001471849781</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01283556905408317</v>
+        <v>0.01320962905009281</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01263838196570119</v>
+        <v>0.01298904436730185</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01236933473522074</v>
+        <v>0.01280191597311973</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01233076175442323</v>
+        <v>0.0127686751323993</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0121166156369335</v>
+        <v>0.01262715605620978</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01204945266813324</v>
+        <v>0.01252553276166832</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01191665264565152</v>
+        <v>0.01241450248227665</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01189591256246675</v>
+        <v>0.01241316810278063</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01184213544632043</v>
+        <v>0.01233292028254955</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01180033298420681</v>
+        <v>0.0123140416216552</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01176947087724701</v>
+        <v>0.01229126972333557</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5468900203704834</v>
+        <v>1.098011493682861</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>625.3663212767151</v>
+        <v>640.1399326716473</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02134107648440884</v>
+        <v>0.02567667097771828</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01837935973675144</v>
+        <v>0.02142370810849646</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01625816187309214</v>
+        <v>0.01920397099097458</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01561396340321121</v>
+        <v>0.01747471344576185</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01444468405749754</v>
+        <v>0.01673297666007305</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01431280879799099</v>
+        <v>0.0158744398492185</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01391984862407272</v>
+        <v>0.01484234921993942</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01364358958402466</v>
+        <v>0.01436749102873098</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01364358958402466</v>
+        <v>0.01366197005633437</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01336269938969645</v>
+        <v>0.01331393723575329</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01296934559670344</v>
+        <v>0.01315861011905459</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01289180516903879</v>
+        <v>0.0129691829516327</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0127089101247955</v>
+        <v>0.01285979709735595</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01260525551127072</v>
+        <v>0.01275018371575741</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01249983126409438</v>
+        <v>0.01270095873092895</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01247193758261591</v>
+        <v>0.01257935930388868</v>
       </c>
       <c r="V10" t="n">
-        <v>0.012361520118612</v>
+        <v>0.01255026748680999</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01226730431013635</v>
+        <v>0.0125239321367929</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01222260344062877</v>
+        <v>0.01250508524413416</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01219037663307436</v>
+        <v>0.01247836126065589</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5312352180480957</v>
+        <v>1.03163480758667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>599.4369188301825</v>
+        <v>636.0683877261199</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02130631467251787</v>
+        <v>0.02451370915961799</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01798507629329489</v>
+        <v>0.02025148068847606</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01614852946204287</v>
+        <v>0.01763290449258119</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01541448010276658</v>
+        <v>0.01663012414003038</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01429049516936974</v>
+        <v>0.0158508098660964</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01391044455987069</v>
+        <v>0.01515839230013833</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01331305916599156</v>
+        <v>0.01437238650879111</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01312464654957834</v>
+        <v>0.01412860805177591</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01259924854687428</v>
+        <v>0.01362686947749443</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01259802147006913</v>
+        <v>0.01344704872053002</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01236496640629553</v>
+        <v>0.01320620292463987</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01226947145725192</v>
+        <v>0.01303094587515947</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01220872863042655</v>
+        <v>0.01284420240339365</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01200739242156962</v>
+        <v>0.01277995326297816</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01189417077853528</v>
+        <v>0.01263443500611844</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01184675837383901</v>
+        <v>0.0125634456674783</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01178507711936227</v>
+        <v>0.01248393185608044</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01172538285504021</v>
+        <v>0.01242542362779569</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01171723878156945</v>
+        <v>0.01242542362779569</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01168493019162149</v>
+        <v>0.01239899391278986</v>
       </c>
     </row>
   </sheetData>
